--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2039859.999724448</v>
+        <v>-2042474.278340901</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>51.30851309048487</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>37.18253918237735</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851268</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.0869132767431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>129.8049614663863</v>
       </c>
       <c r="E4" t="n">
-        <v>13.21683571160276</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>94.83943180792922</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>192.0586035981867</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>149.6741394702218</v>
+        <v>110.7929204252946</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.9482232209653</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>62.07832301843487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>210.7705473476136</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>69.78817203509058</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.69338550034104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701325</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142891</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>79.70119244397694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.731100678468</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.49605685438657</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4665281367392</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.50276072357161</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703264</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581207</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053456</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>74.96337793488128</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308906</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308924</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1607.126581841432</v>
+        <v>1703.912673528658</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.16406490102</v>
+        <v>1334.950156588247</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.16406490102</v>
+        <v>976.6844579814961</v>
       </c>
       <c r="E2" t="n">
-        <v>1186.33728400154</v>
+        <v>976.6844579814961</v>
       </c>
       <c r="F2" t="n">
-        <v>775.3513792119329</v>
+        <v>565.6985531918885</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812115</v>
+        <v>150.3302575611674</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178314</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510735003</v>
+        <v>223.6389510734995</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.5745606447437</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185025</v>
+        <v>925.8512030185011</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877246</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384223</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
         <v>2927.679802719471</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="T2" t="n">
-        <v>2968.482785589157</v>
+        <v>2761.209974403423</v>
       </c>
       <c r="U2" t="n">
-        <v>2714.928641224936</v>
+        <v>2761.209974403423</v>
       </c>
       <c r="V2" t="n">
-        <v>2383.865753881365</v>
+        <v>2430.147087059852</v>
       </c>
       <c r="W2" t="n">
-        <v>2383.865753881365</v>
+        <v>2077.378431789738</v>
       </c>
       <c r="X2" t="n">
-        <v>2383.865753881365</v>
+        <v>1703.912673528658</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.726421905553</v>
+        <v>1703.912673528658</v>
       </c>
     </row>
     <row r="3">
@@ -4392,58 +4392,58 @@
         <v>1018.141381960366</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9039269549105</v>
+        <v>858.90392695491</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3693689817954</v>
+        <v>712.369368981795</v>
       </c>
       <c r="G3" t="n">
-        <v>575.8479775299293</v>
+        <v>575.8479775299288</v>
       </c>
       <c r="H3" t="n">
-        <v>483.8173226044876</v>
+        <v>483.8173226044872</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744441</v>
+        <v>469.5881172744436</v>
       </c>
       <c r="J3" t="n">
-        <v>548.6079372775561</v>
+        <v>673.4380622645604</v>
       </c>
       <c r="K3" t="n">
-        <v>1001.568037510599</v>
+        <v>886.6503454665552</v>
       </c>
       <c r="L3" t="n">
-        <v>1334.580805460841</v>
+        <v>1219.663113416798</v>
       </c>
       <c r="M3" t="n">
-        <v>1742.547866633523</v>
+        <v>1627.630174589478</v>
       </c>
       <c r="N3" t="n">
-        <v>2175.721246887314</v>
+        <v>2060.80355484327</v>
       </c>
       <c r="O3" t="n">
-        <v>2549.770467331844</v>
+        <v>2434.852775287799</v>
       </c>
       <c r="P3" t="n">
-        <v>2830.64487725709</v>
+        <v>2715.727185213045</v>
       </c>
       <c r="Q3" t="n">
-        <v>2968.482785589157</v>
+        <v>2933.190181986761</v>
       </c>
       <c r="R3" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S3" t="n">
         <v>2836.104707899342</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619123</v>
+        <v>2642.823682619122</v>
       </c>
       <c r="U3" t="n">
         <v>2414.745421853243</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.593313621501</v>
+        <v>2179.5933136215</v>
       </c>
       <c r="W3" t="n">
         <v>1925.355956893299</v>
@@ -4452,7 +4452,7 @@
         <v>1717.504456687766</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922813</v>
+        <v>1509.744157922812</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>808.3219358900419</v>
+        <v>775.9710800683965</v>
       </c>
       <c r="C4" t="n">
-        <v>639.385752962135</v>
+        <v>607.0348971404896</v>
       </c>
       <c r="D4" t="n">
-        <v>489.2691135497993</v>
+        <v>475.9187744471702</v>
       </c>
       <c r="E4" t="n">
         <v>475.9187744471702</v>
@@ -4477,25 +4477,25 @@
         <v>475.9187744471702</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>308.0832317263263</v>
       </c>
       <c r="H4" t="n">
         <v>160.6861671127259</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945986</v>
+        <v>95.29667538945955</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>284.1726417778204</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>581.3952856386273</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>905.1640129945952</v>
       </c>
       <c r="N4" t="n">
         <v>1226.668860094579</v>
@@ -4504,7 +4504,7 @@
         <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>1724.49102829028</v>
       </c>
       <c r="Q4" t="n">
         <v>1791.210133852896</v>
@@ -4516,22 +4516,22 @@
         <v>1501.414138493183</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>1501.414138493183</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202816</v>
+        <v>1212.304033104523</v>
       </c>
       <c r="V4" t="n">
-        <v>989.9704007202816</v>
+        <v>957.6195448986363</v>
       </c>
       <c r="W4" t="n">
-        <v>989.9704007202816</v>
+        <v>957.6195448986363</v>
       </c>
       <c r="X4" t="n">
-        <v>989.9704007202816</v>
+        <v>957.6195448986363</v>
       </c>
       <c r="Y4" t="n">
-        <v>989.9704007202816</v>
+        <v>957.6195448986363</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1734.047335491681</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1365.084818551269</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792694</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531614</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555803</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>994.9724442986994</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>766.9828934006821</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.190314257152</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1569.10175931188</v>
+        <v>1845.410930903096</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.139242371468</v>
+        <v>1476.448413962684</v>
       </c>
       <c r="D8" t="n">
-        <v>841.8735437647176</v>
+        <v>1118.182715355934</v>
       </c>
       <c r="E8" t="n">
-        <v>841.8735437647176</v>
+        <v>732.3944627576896</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>321.408557968082</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351813</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.701599376001</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4878,43 +4878,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>696.1640136694025</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>696.1640136694025</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>696.1640136694025</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>548.2509200870094</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
         <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>1098.605057643172</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.9541770656748</v>
+        <v>877.8124784996422</v>
       </c>
     </row>
     <row r="11">
@@ -5030,49 +5030,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,31 +5291,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532262</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532262</v>
+        <v>929.7309773356193</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408904</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408904</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.280197868759</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.425363523663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.425363523663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625013</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834659</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,7 +5519,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,7 +5540,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>803.2707707770326</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121641</v>
+        <v>634.3345878491257</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121641</v>
+        <v>484.2179484367899</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121641</v>
+        <v>336.3048548543969</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121641</v>
+        <v>317.61519755786</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>984.9192356072723</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>658.925596110995</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830882</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>840.5740609412346</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,13 +6622,13 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150025</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>242.1695121525736</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>80.42938226429212</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447146</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>330.6218569817769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>260.4247544083567</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.81051155182601</v>
       </c>
       <c r="E4" t="n">
-        <v>133.2171269349664</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405084</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.8218058926141</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.87918985573512</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>108.2431272522979</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.9182872993596</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405071</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>62.3554390986496</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.2291039219427</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>143.6212754172134</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.316948990090169e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-7.638334409421077e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085415.538241822</v>
+        <v>1085415.538241821</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1341550.992928707</v>
+        <v>1341550.992928708</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1341550.992928707</v>
+        <v>1341550.992928708</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1341550.992928707</v>
+        <v>1341550.992928708</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287323</v>
+        <v>64921.82232287322</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642834</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642836</v>
-      </c>
       <c r="E2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900055</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="L2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642841</v>
-      </c>
       <c r="O2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973087</v>
+        <v>95186.49343973114</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.283109211553328e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.0103835997</v>
+        <v>22978.01038359976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14779.83765767046</v>
+        <v>14779.83765767048</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678133</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18547.94754987471</v>
+      </c>
+      <c r="L4" t="n">
         <v>18547.94754987468</v>
       </c>
-      <c r="K4" t="n">
-        <v>18547.94754987469</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18547.94754987475</v>
-      </c>
       <c r="M4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987468</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279395.494527245</v>
+        <v>-1279825.053393834</v>
       </c>
       <c r="C6" t="n">
-        <v>-210760.3800728283</v>
+        <v>-210760.3800728286</v>
       </c>
       <c r="D6" t="n">
-        <v>-115573.8866330974</v>
+        <v>-115573.8866330975</v>
       </c>
       <c r="E6" t="n">
-        <v>-356377.4199490428</v>
+        <v>-356412.1578744786</v>
       </c>
       <c r="F6" t="n">
-        <v>-30964.9581416877</v>
+        <v>-30999.69606712357</v>
       </c>
       <c r="G6" t="n">
-        <v>-30964.95814168773</v>
+        <v>-30999.69606712338</v>
       </c>
       <c r="H6" t="n">
-        <v>-30964.9581416877</v>
+        <v>-30999.6960671235</v>
       </c>
       <c r="I6" t="n">
-        <v>-30964.95814168773</v>
+        <v>-30999.69606712353</v>
       </c>
       <c r="J6" t="n">
-        <v>-253207.0318991659</v>
+        <v>-253207.0318991658</v>
       </c>
       <c r="K6" t="n">
-        <v>-62585.89680096142</v>
+        <v>-62585.89680096156</v>
       </c>
       <c r="L6" t="n">
-        <v>-39607.88641736175</v>
+        <v>-39607.88641736168</v>
       </c>
       <c r="M6" t="n">
-        <v>-124662.9143528735</v>
+        <v>-124662.9143528734</v>
       </c>
       <c r="N6" t="n">
-        <v>-39607.88641736166</v>
+        <v>-39607.88641736178</v>
       </c>
       <c r="O6" t="n">
-        <v>-59035.60441099352</v>
+        <v>-59035.60441099347</v>
       </c>
       <c r="P6" t="n">
         <v>-39607.8864173617</v>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203975</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646396995</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>205.0089021504612</v>
+        <v>243.8901211953883</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>180.5747751156257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.7977227232766</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>200.1511783058399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>75.63287598784066</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>134.8912678517538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,16 +28090,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.411577144875051e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.86750852503308</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>157.6074329218932</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078535</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382368</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419352</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570166</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.877462251719</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.471491393401</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.15814480792794</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467197</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026366</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629472</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004838</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429592</v>
       </c>
       <c r="P3" t="n">
         <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
         <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092173</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404267</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.1471286403249</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,7 +31212,7 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283776</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
@@ -31221,22 +31221,22 @@
         <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443082</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219111</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924027</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881707</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33670,10 +33670,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,10 +34138,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.934959162873</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109641</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453443</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353299</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964494</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189515</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8180000031434</v>
+        <v>205.9090353435522</v>
       </c>
       <c r="K3" t="n">
-        <v>457.5354547808514</v>
+        <v>215.3659426282777</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830731</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784656</v>
+        <v>412.0879405784655</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.8274953985148</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.711525177016</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>219.6595927007232</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.64909454787364</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634009</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.7838044326878</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.2248927886938</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
         <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583479</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.3930359218342</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417391</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37318,10 +37318,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
